--- a/origin_data/기간내_황사.xlsx
+++ b/origin_data/기간내_황사.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leejuwon/Desktop/이주원/학교/3-1/데이터과학/DataScience/origin_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joonkyo/DataScience/origin_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A47D1EFA-2B7D-E349-AEC4-3AF6FADA7A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1271A12-8F77-B644-83CF-B203AA4B5D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="2700" windowWidth="27900" windowHeight="16940" xr2:uid="{18766523-3520-0F4C-8A2E-A56396DEC7B0}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="34">
   <si>
     <t>일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:D269"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A247" sqref="A247:D269"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
@@ -698,6 +698,9 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="1">
